--- a/CS catalog.xlsx
+++ b/CS catalog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuantang/Desktop/sms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuantang/Desktop/Student-Course-Recommendation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084D6B4A-8688-B246-9151-A78103CC3955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3F7200-648E-5340-B9F3-35ED25817EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28240" windowHeight="17440" xr2:uid="{EC0DB0C7-E13E-FD40-B8C5-E58D3D40ABB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>Course</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,43 +208,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CS151;CS112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS122;CS150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS122/CS150;CS151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS210;CS251;MATH241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS122;CS151;MATH241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS213;MATH241;MATH259</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS122;CS151;MATH241;CS259</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS122;CS151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS112/CS122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATH259;MATH241;CS251</t>
+    <t>CS112:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS151:C;CS112:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS122:C;CS150:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS122:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS122:C/CS150:C;CS151:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS210:C;CS251:C;MATH241:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS122:C;CS151:C;MATH241:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS213:C;MATH241:C;MATH259:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS213:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS251:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS150:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS122:C;CS151:C;MATH241:C;CS259:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS112:D/CS122:D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS122:C;CS151:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATH122:D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATH259:C;MATH241:C;CS251:C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENG101:D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63397DC-3BA3-3945-B27B-8B838C99920E}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="167" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -642,7 +670,7 @@
     <col min="1" max="2" width="15.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -693,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -710,7 +738,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -727,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -744,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -761,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -778,7 +806,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -795,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -812,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -829,7 +857,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -846,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -863,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -880,7 +908,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -897,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -914,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -931,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -999,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1016,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1050,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
